--- a/Results/Table_models.xlsx
+++ b/Results/Table_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28162A9F-B829-9146-9C18-6DDA8811CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD104FD9-2E27-114A-A2FF-277B8BDD40B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>-4.2999999999999999E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>0.66</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -647,7 +647,7 @@
         <v>-1.2E-4</v>
       </c>
       <c r="D4" s="2">
-        <v>0.69499999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>5</v>

--- a/Results/Table_models.xlsx
+++ b/Results/Table_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD104FD9-2E27-114A-A2FF-277B8BDD40B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B15E2-82E4-BE49-9D04-3AC13062CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_ave_species" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="M2_ave" sheetId="2" r:id="rId3"/>
     <sheet name="M3_ave" sheetId="4" r:id="rId4"/>
     <sheet name="M4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sensitivity_M4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -154,6 +155,9 @@
       <t>3</t>
     </r>
   </si>
+  <si>
+    <t>E (0.901)</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +169,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +209,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,6 +261,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B376C1BE-C9BA-EA4B-97B5-D1D4003AD31E}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +971,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,4 +1039,260 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A82BA0-9448-5C45-8BA2-922112F81DB5}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-7.6817380000000005E-7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-8.3590000000000001E-7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.72</v>
+      </c>
+      <c r="C4" s="11">
+        <v>-1.032E-6</v>
+      </c>
+      <c r="D4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>6.62</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-9.653000000000001E-7</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>6.38</v>
+      </c>
+      <c r="C6" s="11">
+        <v>-9.0869999999999998E-7</v>
+      </c>
+      <c r="D6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>5.96</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-8.7609999999999996E-7</v>
+      </c>
+      <c r="D7">
+        <v>0.61</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>5.84</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-9.0380000000000003E-7</v>
+      </c>
+      <c r="D8">
+        <v>0.61</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>5.62</v>
+      </c>
+      <c r="C9" s="11">
+        <v>-8.8859999999999995E-7</v>
+      </c>
+      <c r="D9">
+        <v>0.64</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <v>5.31</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-8.2360000000000004E-7</v>
+      </c>
+      <c r="D10">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-7.836E-7</v>
+      </c>
+      <c r="D11">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4.92</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-7.5720000000000003E-7</v>
+      </c>
+      <c r="D12">
+        <v>0.64</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Table_models.xlsx
+++ b/Results/Table_models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B15E2-82E4-BE49-9D04-3AC13062CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E412CFEB-5948-894D-BD59-FC88DEF58553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{EB4D4A07-8EA4-EE43-B3EA-B2E3F1412D83}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_ave_species" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="M3_ave" sheetId="4" r:id="rId4"/>
     <sheet name="M4" sheetId="5" r:id="rId5"/>
     <sheet name="Sensitivity_M4" sheetId="6" r:id="rId6"/>
+    <sheet name="All" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -157,6 +158,9 @@
   </si>
   <si>
     <t>E (0.901)</t>
+  </si>
+  <si>
+    <t>Empirical</t>
   </si>
 </sst>
 </file>
@@ -236,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +269,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +592,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,7 +710,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,10 +825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C979ED-13ED-7F41-BE99-355C3DBC3A9F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,20 +881,28 @@
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="3">
-        <v>-4.7250000000000003E-8</v>
+        <v>-3.467E-7</v>
       </c>
       <c r="D3" s="2">
-        <v>7.3999999999999996E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="8">
-        <v>0.124</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F3" s="2">
         <v>19</v>
       </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,7 +914,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,16 +964,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="3">
-        <v>-3.467E-7</v>
+        <v>-4.7250000000000003E-8</v>
       </c>
       <c r="D3" s="2">
-        <v>0.3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E3" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>0.124</v>
       </c>
       <c r="F3" s="2">
         <v>19</v>
@@ -1045,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A82BA0-9448-5C45-8BA2-922112F81DB5}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1295,4 +1313,159 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86507568-4B9D-774E-B406-B889FB677538}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-7.6817380000000005E-7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-5.9000000000000003E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1.8000000000000001E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-1.2799999999999999E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-3.467E-7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-4.7250000000000003E-8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>